--- a/test/out/example2.xlsx
+++ b/test/out/example2.xlsx
@@ -10,7 +10,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">sheet1!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>

--- a/test/out/example2.xlsx
+++ b/test/out/example2.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519"/>
 </workbook>
 </file>

--- a/test/out/example2.xlsx
+++ b/test/out/example2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
